--- a/data/america-do-sul/copa-libertadores/2021.xlsx
+++ b/data/america-do-sul/copa-libertadores/2021.xlsx
@@ -615,9 +615,19 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>59283</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -857,9 +867,19 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>59283</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -915,9 +935,19 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>61927</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -1022,7 +1052,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1031,7 +1061,11 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Allianz Parque (São Paulo)</t>
@@ -1153,19 +1187,9 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Valenzuela J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Estádio Monumental (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>84567</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -1221,9 +1245,19 @@
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Ferreira (Assunção)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>20000</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -1260,7 +1294,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1477,19 +1511,9 @@
       <c r="G17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Aquino E. (Par)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>26000</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1604,7 +1628,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1613,9 +1637,19 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>59283</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1662,7 +1696,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1671,9 +1705,19 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>43713</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1720,7 +1764,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1729,19 +1773,9 @@
       <c r="G21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Tejera G. (Uru)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>61000</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1797,7 +1831,11 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>Mineirão (Belo Horizonte)</t>
@@ -1933,11 +1971,7 @@
       <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Aquino E. (Par)</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
@@ -2050,7 +2084,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2118,7 +2152,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2139,7 +2173,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Raphael Claus (Bra)</t>
+          <t xml:space="preserve"> (Bra)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2186,7 +2220,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2205,11 +2239,7 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Ospina J. (Col)</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>Estádio do MorumBIS (São Paulo)</t>
@@ -2273,9 +2303,19 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>57200</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -2390,7 +2430,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2399,9 +2439,19 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Gonzalez L. (Uru)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>78838</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -2457,9 +2507,19 @@
       <c r="G32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>41575</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -2583,7 +2643,11 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Allianz Parque (São Paulo)</t>
@@ -2647,9 +2711,19 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Aquino E. (Par)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>34000</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -2686,7 +2760,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2841,9 +2915,19 @@
       <c r="G38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>57200</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -3161,9 +3245,19 @@
       <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>61000</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -3200,7 +3294,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3220,8 +3314,14 @@
         <v>0</v>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Estádio do MorumBIS (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>77011</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -3326,7 +3426,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3413,8 +3513,16 @@
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
       <c r="J47" t="n">
         <v>57200</v>
       </c>
@@ -3473,9 +3581,19 @@
       <c r="G48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Pitana N. (Arg)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Ferreira (Assunção)</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>20000</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -3599,9 +3717,19 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>38000</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -3794,14 +3922,8 @@
         <v>2</v>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Maracanã (Rio de Janeiro)</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>78838</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -3848,7 +3970,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3925,11 +4047,7 @@
       <c r="G55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Congo F. (Ecu)</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
           <t>Estadio Nacional (Lima)</t>
@@ -3974,7 +4092,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3993,9 +4111,19 @@
       <c r="G56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Lopez D. (Par)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Estadio José Amalfitani (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>49540</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -4100,7 +4228,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4121,7 +4249,9 @@
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>77011</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -4236,7 +4366,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4507,9 +4637,19 @@
       <c r="G64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Cunha A. (Uru)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Estadio Romelio Martinez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>8600</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -4546,7 +4686,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4701,9 +4841,19 @@
       <c r="G67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Gallo N. (Col)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>80093</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -4750,7 +4900,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -4829,7 +4979,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ostojich E. (Uru)</t>
+          <t xml:space="preserve"> (Uru)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4895,9 +5045,19 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>24264</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -4944,7 +5104,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -4953,9 +5113,19 @@
       <c r="G71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>26000</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -5002,7 +5172,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5138,14 +5308,8 @@
         <v>2</v>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Estadio Nacional (Lima)</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>43086</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -5201,7 +5365,11 @@
       <c r="G75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>Estádio Municipal Nicolás Chahuán (La Calera)</t>
@@ -5265,9 +5433,19 @@
       <c r="G76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Estadio Polideportivo de Pueblo Nuevo (San Cristóbal)</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>38755</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -5323,7 +5501,11 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>Vila Belmiro (Santos)</t>
@@ -5389,9 +5571,7 @@
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>41143</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -5564,7 +5744,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5583,19 +5763,9 @@
       <c r="G81" t="n">
         <v>0</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Herrera A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Estádio General Pablo Rojas (Assunção)</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>45000</v>
-      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -5719,19 +5889,9 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Valenzuela J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Estádio Manuel Ferreira (Assunção)</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>20000</v>
-      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -5768,7 +5928,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5790,7 +5950,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Estádio San Carlos de Apoquindo (Santiago)</t>
+          <t xml:space="preserve"> (Santiago)</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5919,9 +6079,19 @@
       <c r="G86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Herrera C. (Col)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>60235</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -6036,7 +6206,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6104,8 +6274,14 @@
         <v>0</v>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>59283</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -6161,19 +6337,9 @@
       <c r="G90" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Roldan W. (Col)</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>20000</v>
-      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -6297,9 +6463,19 @@
       <c r="G92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Pitana N. (Arg)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>61927</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -6414,7 +6590,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -6472,7 +6648,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6491,9 +6667,19 @@
       <c r="G95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Estádio do MorumBIS (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>77011</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -6549,11 +6735,7 @@
       <c r="G96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Arteaga A. (Ven)</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
           <t>Estadio Juan Domingo Perón (Avellaneda)</t>
@@ -6598,7 +6780,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6619,7 +6801,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vargas G. (Bol)</t>
+          <t xml:space="preserve"> (Bol)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6685,9 +6867,19 @@
       <c r="G98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Lopez D. (Par)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>59283</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -6860,7 +7052,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6879,9 +7071,19 @@
       <c r="G101" t="n">
         <v>2</v>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Cunha A. (Uru)</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Estádio Centenário (Armenia)</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>20716</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -6938,11 +7140,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Estádio General Pablo Rojas (Assunção)</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>45000</v>
       </c>
@@ -7001,9 +7199,19 @@
       <c r="G103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Hermosilla Baeza A. (Chi)</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>20000</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -7059,11 +7267,7 @@
       <c r="G104" t="n">
         <v>4</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Aragon A. (Ecu)</t>
-        </is>
-      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
           <t>Gran Parque Central (Montevidéu)</t>
@@ -7195,9 +7399,19 @@
       <c r="G106" t="n">
         <v>0</v>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>50600</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -7253,9 +7467,19 @@
       <c r="G107" t="n">
         <v>0</v>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>43713</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -7311,9 +7535,19 @@
       <c r="G108" t="n">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>61927</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -7369,19 +7603,9 @@
       <c r="G109" t="n">
         <v>1</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Aquino E. (Par)</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Maracanã (Rio de Janeiro)</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>78838</v>
-      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -7428,7 +7652,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -7496,7 +7720,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -7505,9 +7729,19 @@
       <c r="G111" t="n">
         <v>1</v>
       </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>46788</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -7554,7 +7788,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -7631,16 +7865,8 @@
       <c r="G113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Tobar Vargas R. (Chi)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Maracanã (Rio de Janeiro)</t>
-        </is>
-      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>78838</v>
       </c>
@@ -7699,9 +7925,19 @@
       <c r="G114" t="n">
         <v>2</v>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Echenique F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Estádio Américo Montanini (Bucaramanga)</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>28000</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -7883,9 +8119,19 @@
       <c r="G117" t="n">
         <v>1</v>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>César Benítez (Par)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Complejo Rentistas (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>8232</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -7941,9 +8187,19 @@
       <c r="G118" t="n">
         <v>3</v>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>80093</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -7999,9 +8255,19 @@
       <c r="G119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>24264</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -8106,7 +8372,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -8115,9 +8381,19 @@
       <c r="G121" t="n">
         <v>3</v>
       </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Cunha A. (Uru)</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Estádio Alberto Gallardo (Lima)</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>11600</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -8154,7 +8430,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/MiclPtFa-UofJiKP6.png</t>
+          <t>https://static.flashscore.com/res/image/data/MiclPtFa-YF2zL4v9.png</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8173,9 +8449,19 @@
       <c r="G122" t="n">
         <v>3</v>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Estadio José Amalfitani (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>49540</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -8299,9 +8585,19 @@
       <c r="G124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Carrillo V. (Per)</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>26000</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -8425,11 +8721,7 @@
       <c r="G126" t="n">
         <v>2</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
           <t>Vila Belmiro (Santos)</t>
@@ -8493,9 +8785,19 @@
       <c r="G127" t="n">
         <v>0</v>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Aquino E. (Par)</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>46788</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -8551,9 +8853,19 @@
       <c r="G128" t="n">
         <v>1</v>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>40943</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -8813,19 +9125,9 @@
       <c r="G132" t="n">
         <v>1</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>41143</v>
-      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -9153,9 +9455,19 @@
       <c r="G137" t="n">
         <v>0</v>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Gonzalez L. (Uru)</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>47964</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -9211,9 +9523,19 @@
       <c r="G138" t="n">
         <v>2</v>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Estadio Tigo La Huerta (Assunção)</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>10100</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -9337,9 +9659,19 @@
       <c r="G140" t="n">
         <v>2</v>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Estádio Municipal Rumiñahui (Sangolquí)</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>8000</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -9463,9 +9795,19 @@
       <c r="G142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Carrillo V. (Per)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico (Caracas)</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>24264</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -9521,9 +9863,19 @@
       <c r="G143" t="n">
         <v>2</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>44164</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -9715,11 +10067,7 @@
       <c r="G146" t="n">
         <v>1</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (Bra)</t>
-        </is>
-      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
           <t>Estádio Nacional Julio Martínez Prádanos (Santiago)</t>
@@ -9783,9 +10131,19 @@
       <c r="G147" t="n">
         <v>1</v>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Estadio Olímpico Atahualpa (Quito)</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>35258</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -9909,14 +10267,10 @@
       <c r="G149" t="n">
         <v>1</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Vila Belmiro (Santos)</t>
+          <t xml:space="preserve"> (Santos)</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -9977,7 +10331,11 @@
       <c r="G150" t="n">
         <v>0</v>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -10035,16 +10393,8 @@
       <c r="G151" t="n">
         <v>1</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Traci R. (Bra)</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Estadio Rogelio Livieres (Assunção)</t>
-        </is>
-      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>8000</v>
       </c>
@@ -10239,19 +10589,9 @@
       <c r="G154" t="n">
         <v>4</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Ortega K. (Per)</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>38000</v>
-      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10307,19 +10647,9 @@
       <c r="G155" t="n">
         <v>0</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Vera M. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Estadio Mansiche (Trujillo)</t>
-        </is>
-      </c>
-      <c r="J155" t="n">
-        <v>25036</v>
-      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -10375,9 +10705,19 @@
       <c r="G156" t="n">
         <v>1</v>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Lamolina N. (Arg)</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Estádio Belvedere (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>10000</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
